--- a/Сценарии тестирования_lab4.xlsx
+++ b/Сценарии тестирования_lab4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\software-testing-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ваня и Таня\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400F8A5F-4B01-4703-BC9B-B5A624431B5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>V1.0</t>
   </si>
@@ -239,9 +238,6 @@
     <t>1. Зайти на вкладку проекты. 2. Нажать кнопку "Удалить"</t>
   </si>
   <si>
-    <t>Проект удалён и не отображается в списке проектов</t>
-  </si>
-  <si>
     <t>1.1.2</t>
   </si>
   <si>
@@ -258,12 +254,48 @@
   </si>
   <si>
     <t>1.1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>1. Зайти на вкладку проекты 2. Нажать кнопку "Добавить" 3. Заполнить все поля валидными данными 4. Добавить задачу с валидными значениями полей 5. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>Добавлен новый проект с задачей</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>1. Зайти на вкладку проекты 2. Нажать кнопку "Добавить" 3. Заполнить все поля валидными данными 4. Добавить задачу с невалидными значениями полей 5. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>Проект не добавлен пока не будет решена проблема с валидацией данных в задаче или её создание не будет отменено</t>
+  </si>
+  <si>
+    <t>Добавление проекта с задачей с невалидными данными</t>
+  </si>
+  <si>
+    <t>Добавление проекта с задачей с валидными данными</t>
+  </si>
+  <si>
+    <t>Проект удалён и не отображается в списке проектов. Задачи, созданные для этого проекта удалены и не отображаются в списке задач</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>Просмотр всех проектов с суммой длины полей больше размера экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица отображается корректно, строки переносятся на следующие </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -387,6 +419,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="11">
@@ -638,7 +672,7 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,41 +755,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -764,12 +774,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,18 +822,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{D9995EB4-F73C-4265-8960-11D66ABA4BCF}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,9 +878,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -881,7 +918,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -916,23 +953,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -968,26 +988,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1160,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1183,20 +1186,20 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -1205,107 +1208,107 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="1:7" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:7" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -1337,6 +1340,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1345,28 +1353,23 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1408,19 +1411,19 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1435,7 +1438,7 @@
       <c r="D3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1482,33 +1485,33 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
-    </row>
-    <row r="5" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60"/>
+    </row>
+    <row r="5" spans="1:16" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="62" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -1520,21 +1523,21 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="62" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1546,21 +1549,21 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="89.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1572,17 +1575,21 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="76.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>59</v>
+        <v>76</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="60"/>
+      <c r="D8" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="36"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -1594,21 +1601,21 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="76.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="60"/>
+      <c r="D9" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="36"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1622,19 +1629,15 @@
     </row>
     <row r="10" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -1646,21 +1649,21 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>73</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="61"/>
+      <c r="D11" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1672,21 +1675,21 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="61"/>
+      <c r="D12" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="36"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -1698,32 +1701,110 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
+    <row r="13" spans="1:16" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:P2"/>
     <mergeCell ref="F4:P4"/>
-    <mergeCell ref="F13:P13"/>
+    <mergeCell ref="F16:P16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65531:F65538 F131067:F131074 F196603:F196610 F262139:F262146 F327675:F327682 F393211:F393218 F458747:F458754 F524283:F524290 F589819:F589826 F655355:F655362 F720891:F720898 F786427:F786434 F851963:F851970 F917499:F917506 F983035:F983042 F65523 F131059 F196595 F262131 F327667 F393203 F458739 F524275 F589811 F655347 F720883 F786419 F851955 F917491 F983027 F65525:F65529 F131061:F131065 F196597:F196601 F262133:F262137 F327669:F327673 F393205:F393209 F458741:F458745 F524277:F524281 F589813:F589817 F655349:F655353 F720885:F720889 F786421:F786425 F851957:F851961 F917493:F917497 F983029:F983033 F65540:F65544 F131076:F131080 F196612:F196616 F262148:F262152 F327684:F327688 F393220:F393224 F458756:F458760 F524292:F524296 F589828:F589832 F655364:F655368 F720900:F720904 F786436:F786440 F851972:F851976 F917508:F917512 F983044:F983048 F65546:F65548 F131082:F131084 F196618:F196620 F262154:F262156 F327690:F327692 F393226:F393228 F458762:F458764 F524298:F524300 F589834:F589836 F655370:F655372 F720906:F720908 F786442:F786444 F851978:F851980 F917514:F917516 F983050:F983052 F65550:F65553 F131086:F131089 F196622:F196625 F262158:F262161 F327694:F327697 F393230:F393233 F458766:F458769 F524302:F524305 F589838:F589841 F655374:F655377 F720910:F720913 F786446:F786449 F851982:F851985 F917518:F917521 F983054:F983057" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65534:F65541 F131070:F131077 F196606:F196613 F262142:F262149 F327678:F327685 F393214:F393221 F458750:F458757 F524286:F524293 F589822:F589829 F655358:F655365 F720894:F720901 F786430:F786437 F851966:F851973 F917502:F917509 F983038:F983045 F65526 F131062 F196598 F262134 F327670 F393206 F458742 F524278 F589814 F655350 F720886 F786422 F851958 F917494 F983030 F65528:F65532 F131064:F131068 F196600:F196604 F262136:F262140 F327672:F327676 F393208:F393212 F458744:F458748 F524280:F524284 F589816:F589820 F655352:F655356 F720888:F720892 F786424:F786428 F851960:F851964 F917496:F917500 F983032:F983036 F65543:F65547 F131079:F131083 F196615:F196619 F262151:F262155 F327687:F327691 F393223:F393227 F458759:F458763 F524295:F524299 F589831:F589835 F655367:F655371 F720903:F720907 F786439:F786443 F851975:F851979 F917511:F917515 F983047:F983051 F65549:F65551 F131085:F131087 F196621:F196623 F262157:F262159 F327693:F327695 F393229:F393231 F458765:F458767 F524301:F524303 F589837:F589839 F655373:F655375 F720909:F720911 F786445:F786447 F851981:F851983 F917517:F917519 F983053:F983055 F65553:F65556 F131089:F131092 F196625:F196628 F262161:F262164 F327697:F327700 F393233:F393236 F458769:F458772 F524305:F524308 F589841:F589844 F655377:F655380 F720913:F720916 F786449:F786452 F851985:F851988 F917521:F917524 F983057:F983060">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
